--- a/Practica2 2024.eng/algstudent/times.xlsx
+++ b/Practica2 2024.eng/algstudent/times.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="table4" sheetId="4" r:id="rId4"/>
     <sheet name="Hoja4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,17 +23,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
   <si>
     <t>n</t>
   </si>
   <si>
-    <t>t ordered</t>
-  </si>
-  <si>
-    <t>t reverse</t>
-  </si>
-  <si>
     <t>t random</t>
   </si>
   <si>
@@ -71,12 +65,21 @@
   </si>
   <si>
     <t>k = 1000</t>
+  </si>
+  <si>
+    <t>t ordered(ms)</t>
+  </si>
+  <si>
+    <t>t reverse (ms)</t>
+  </si>
+  <si>
+    <t>t random (ms)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -212,7 +215,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -389,7 +392,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -399,24 +402,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="4" width="13.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -472,10 +479,10 @@
         <v>38173</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -484,13 +491,13 @@
         <v>160000</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -507,24 +514,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:D10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -592,13 +604,13 @@
         <v>160000</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -615,24 +627,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -640,7 +657,7 @@
         <v>10000</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>739</v>
@@ -655,7 +672,7 @@
         <v>20000</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>2942</v>
@@ -670,7 +687,7 @@
         <v>40000</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>13046</v>
@@ -685,7 +702,7 @@
         <v>80000</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>33843</v>
@@ -700,13 +717,13 @@
         <v>160000</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>48617</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -715,10 +732,10 @@
         <v>320000</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -730,10 +747,10 @@
         <v>640000</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -742,10 +759,10 @@
         <v>1280000</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -757,10 +774,10 @@
         <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -772,10 +789,10 @@
         <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -787,10 +804,10 @@
         <v>240</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -802,10 +819,10 @@
         <v>469</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -817,10 +834,10 @@
         <v>938</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -832,10 +849,10 @@
         <v>1916</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -847,24 +864,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="4" width="13.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -898,7 +919,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A8" si="0">A3*$G$7</f>
+        <f t="shared" ref="A4:A7" si="0">A3*$G$7</f>
         <v>1000000</v>
       </c>
       <c r="B4">
@@ -981,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,88 +1015,147 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2">
+        <v>9990</v>
+      </c>
+      <c r="D2">
+        <v>9990</v>
+      </c>
+      <c r="F2">
         <v>16435</v>
       </c>
-      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
+        <v>9769</v>
+      </c>
+      <c r="D3">
+        <v>9769</v>
+      </c>
+      <c r="F3">
         <v>16128</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
+        <v>9702</v>
+      </c>
+      <c r="D4">
+        <v>9702</v>
+      </c>
+      <c r="F4">
         <v>19311</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
+        <v>9735</v>
+      </c>
+      <c r="D5">
+        <v>9735</v>
+      </c>
+      <c r="F5">
         <v>17759</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
+        <v>9421</v>
+      </c>
+      <c r="D6">
+        <v>9421</v>
+      </c>
+      <c r="F6">
         <v>25711</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
+        <v>9102</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7">
+        <v>9102</v>
+      </c>
+      <c r="F7">
         <v>16366</v>
       </c>
-      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
+        <v>8454</v>
+      </c>
+      <c r="D8">
+        <v>8454</v>
+      </c>
+      <c r="F8">
         <v>22772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>7451</v>
+      </c>
+      <c r="D9">
+        <v>7451</v>
+      </c>
+      <c r="F9">
+        <v>12357</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>12357</v>
+        <v>10739</v>
+      </c>
+      <c r="D10">
+        <v>10739</v>
+      </c>
+      <c r="F10">
+        <v>22061</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>22061</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
+        <v>18854</v>
+      </c>
+      <c r="D11">
+        <v>18854</v>
+      </c>
+      <c r="F11">
         <v>42230</v>
       </c>
     </row>

--- a/Practica2 2024.eng/algstudent/times.xlsx
+++ b/Practica2 2024.eng/algstudent/times.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
